--- a/data/errors6.xlsx
+++ b/data/errors6.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="42">
   <si>
     <t>Catalog #</t>
   </si>
@@ -92,99 +92,9 @@
     <t>Numerical Grade</t>
   </si>
   <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>D.C.</t>
-  </si>
-  <si>
-    <t>Fair</t>
-  </si>
-  <si>
-    <t>F/VF</t>
-  </si>
-  <si>
-    <t>VF-</t>
-  </si>
-  <si>
     <t>VF/NM</t>
   </si>
   <si>
-    <t>B37</t>
-  </si>
-  <si>
-    <t>Action Comics Annual</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>Wizard Press</t>
-  </si>
-  <si>
-    <t>1/2</t>
-  </si>
-  <si>
-    <t>C8329</t>
-  </si>
-  <si>
-    <t>Bone Holiday Special</t>
-  </si>
-  <si>
-    <t>Hero</t>
-  </si>
-  <si>
-    <t>Gilberton</t>
-  </si>
-  <si>
-    <t>Classics Illustrated</t>
-  </si>
-  <si>
-    <t>c13229</t>
-  </si>
-  <si>
-    <t>Cossack Chief, The</t>
-  </si>
-  <si>
-    <t>HRN #164.</t>
-  </si>
-  <si>
-    <t>Chunks out; heavy cover wear.</t>
-  </si>
-  <si>
-    <t>E.C.</t>
-  </si>
-  <si>
-    <t>C16551</t>
-  </si>
-  <si>
-    <t>Generation X</t>
-  </si>
-  <si>
-    <t>Only available through a special offer found in Wizard #81.</t>
-  </si>
-  <si>
-    <t>C17864</t>
-  </si>
-  <si>
-    <t>Picture Stories from the Bible</t>
-  </si>
-  <si>
-    <t>Complete New Testament Edition.</t>
-  </si>
-  <si>
-    <t>144 pages.</t>
-  </si>
-  <si>
-    <t>Corner ding. TE.</t>
-  </si>
-  <si>
-    <t>B3763</t>
-  </si>
-  <si>
-    <t>Retief</t>
-  </si>
-  <si>
     <t>GCD Title</t>
   </si>
   <si>
@@ -213,13 +123,43 @@
   </si>
   <si>
     <t>publication date</t>
+  </si>
+  <si>
+    <t>Faust</t>
+  </si>
+  <si>
+    <t>Rebel Studios</t>
+  </si>
+  <si>
+    <t>Faust [Rebel Edition]</t>
+  </si>
+  <si>
+    <t>C20128</t>
+  </si>
+  <si>
+    <t>Second Print</t>
+  </si>
+  <si>
+    <t>Northstar</t>
+  </si>
+  <si>
+    <t>C8569</t>
+  </si>
+  <si>
+    <t>C20145</t>
+  </si>
+  <si>
+    <t>NM-</t>
+  </si>
+  <si>
+    <t>High-contrast bleeding pentagram handprint CVR.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,6 +181,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -265,11 +210,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -549,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:S7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -560,360 +504,348 @@
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y1" s="3" t="s">
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="Z1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>61</v>
+      <c r="AB1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1938</v>
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>1989</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="K2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2">
+        <v>1992</v>
+      </c>
       <c r="R2">
-        <v>3343</v>
+        <v>17702</v>
       </c>
       <c r="S2">
-        <v>42245</v>
+        <v>290718</v>
       </c>
       <c r="U2">
-        <v>9.4</v>
+        <v>9.26</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA2">
+        <v>1989</v>
+      </c>
+      <c r="AB2">
+        <v>1989</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>5</v>
+      </c>
+      <c r="AF2">
+        <v>5</v>
+      </c>
+      <c r="AH2">
+        <v>1992</v>
+      </c>
+      <c r="AI2">
+        <v>1990</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:35" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1993</v>
+      <c r="E3">
+        <v>1992</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1993</v>
-      </c>
-      <c r="R3">
-        <v>12308</v>
+        <v>1992</v>
+      </c>
+      <c r="R3" s="2">
+        <v>28729</v>
       </c>
       <c r="S3">
-        <v>220367</v>
+        <v>405034</v>
       </c>
       <c r="U3">
         <v>9</v>
       </c>
+      <c r="W3" t="s">
+        <v>32</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA3">
+        <v>1989</v>
+      </c>
+      <c r="AB3">
+        <v>1989</v>
+      </c>
+      <c r="AC3">
+        <v>2</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>4</v>
+      </c>
+      <c r="AF3">
+        <v>4</v>
+      </c>
+      <c r="AH3">
+        <v>1992</v>
+      </c>
+      <c r="AI3">
+        <v>1989</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>1992</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>1992</v>
+      </c>
+      <c r="R4" s="2">
+        <v>28729</v>
+      </c>
+      <c r="S4">
+        <v>405035</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="W4" t="s">
+        <v>32</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1941</v>
-      </c>
-      <c r="G4">
-        <v>164</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4">
-        <v>4.5</v>
-      </c>
-      <c r="L4">
+      <c r="Z4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA4">
+        <v>1989</v>
+      </c>
+      <c r="AB4">
+        <v>1989</v>
+      </c>
+      <c r="AC4">
+        <v>2</v>
+      </c>
+      <c r="AD4">
         <v>1</v>
       </c>
-      <c r="O4" t="s">
-        <v>40</v>
-      </c>
-      <c r="R4">
-        <v>30403</v>
-      </c>
-      <c r="S4">
-        <v>515357</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>1998</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5">
-        <v>15</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q5">
-        <v>1998</v>
-      </c>
-      <c r="R5">
-        <v>16993</v>
-      </c>
-      <c r="S5">
-        <v>276489</v>
-      </c>
-      <c r="U5">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6">
-        <v>1942</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6">
-        <v>220</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>48</v>
-      </c>
-      <c r="O6" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6">
-        <v>1944</v>
-      </c>
-      <c r="R6">
-        <v>399</v>
-      </c>
-      <c r="S6">
-        <v>210173</v>
-      </c>
-      <c r="U6">
-        <v>7.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1989</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <v>26169</v>
-      </c>
-      <c r="S7">
-        <v>370852</v>
-      </c>
-      <c r="U7">
-        <v>7</v>
+      <c r="AE4">
+        <v>5</v>
+      </c>
+      <c r="AF4">
+        <v>5</v>
+      </c>
+      <c r="AH4">
+        <v>1992</v>
+      </c>
+      <c r="AI4">
+        <v>1990</v>
       </c>
     </row>
   </sheetData>
